--- a/public/assets/templates-exports/DOCUMENTO NOMINA MATRICULA.xlsx
+++ b/public/assets/templates-exports/DOCUMENTO NOMINA MATRICULA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arturo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apps\Xampp\htdocs\SistemaMatricula-20165-PPP\public\assets\templates-exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7F0F8F-D456-4054-9D8C-4A5DBAD5711D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB6E19D-EC97-4765-816C-404C81B0CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{0764D746-4199-4641-91DC-8BE5F76B7C63}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0764D746-4199-4641-91DC-8BE5F76B7C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -180,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -275,64 +273,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,471 +687,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B6A70-4E21-41EE-AED1-2951D10F9C10}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AG16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4:AE4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.21875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.5546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="4.5546875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="2" customWidth="1"/>
-    <col min="13" max="23" width="3.6640625" style="2" customWidth="1"/>
-    <col min="24" max="31" width="2.109375" style="2" customWidth="1"/>
-    <col min="32" max="32" width="8.21875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="15.109375" style="2" customWidth="1"/>
-    <col min="34" max="16384" width="11.5546875" style="2"/>
+    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
+    <col min="10" max="11" width="4.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.625" style="1" customWidth="1"/>
+    <col min="13" max="23" width="3.625" style="1" customWidth="1"/>
+    <col min="24" max="31" width="2.125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+    <row r="1" spans="1:33" ht="27.6" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:33" ht="18.75" customHeight="1">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
     </row>
-    <row r="3" spans="1:33" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:33" ht="15" customHeight="1">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="7" t="s">
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="7" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="8" t="s">
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AG3" s="10"/>
+      <c r="AG3" s="5"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:33" ht="15" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="7" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7" t="s">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="18"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="12"/>
     </row>
-    <row r="5" spans="1:33" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:33" ht="24">
+      <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="15" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="U5" s="15" t="s">
+      <c r="U5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
+    <row r="6" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="7" t="s">
+      <c r="I6" s="5"/>
+      <c r="J6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
     </row>
-    <row r="7" spans="1:33" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+    <row r="7" spans="1:33" ht="16.5" customHeight="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
     </row>
-    <row r="8" spans="1:33" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:33" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="7" t="s">
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="7"/>
-      <c r="AF8" s="7"/>
-      <c r="AG8" s="7"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="3" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="14" t="s">
+    <row r="9" spans="1:33" s="2" customFormat="1" ht="28.15" customHeight="1">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16" t="s">
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="16" t="s">
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AG9" s="16"/>
+      <c r="AG9" s="8"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2">
+    <row r="10" spans="1:33">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="5">
         <v>12</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="5">
         <v>12</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="5">
         <v>2000</v>
       </c>
-      <c r="X10" s="2">
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5">
         <v>1</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Y10" s="5">
         <v>1</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="Z10" s="5">
         <v>1</v>
       </c>
-      <c r="AA10" s="2">
+      <c r="AA10" s="5">
         <v>8</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AB10" s="5">
         <v>9</v>
       </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="5">
         <v>0</v>
       </c>
-      <c r="AD10" s="2">
+      <c r="AD10" s="5">
         <v>0</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="5">
         <v>0</v>
       </c>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="Q14" s="2" t="s">
+    <row r="14" spans="1:33">
+      <c r="Q14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="Q15" s="2" t="s">
+    <row r="15" spans="1:33">
+      <c r="Q15" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="Q16" s="4" t="s">
+    <row r="16" spans="1:33" ht="409.5">
+      <c r="Q16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="X9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="X5:AG5"/>
-    <mergeCell ref="X6:AG7"/>
+  <mergeCells count="46">
+    <mergeCell ref="O5:O9"/>
+    <mergeCell ref="N5:N9"/>
+    <mergeCell ref="M5:M9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D8:I9"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="X2:AG2"/>
     <mergeCell ref="AF4:AG4"/>
     <mergeCell ref="W5:W9"/>
@@ -1150,31 +1201,16 @@
     <mergeCell ref="R5:R9"/>
     <mergeCell ref="Q5:Q9"/>
     <mergeCell ref="P5:P9"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D8:I9"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="O5:O9"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="X9:AE9"/>
+    <mergeCell ref="AF9:AG9"/>
+    <mergeCell ref="X8:AG8"/>
+    <mergeCell ref="X4:AE4"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="X5:AG5"/>
+    <mergeCell ref="X6:AG7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/assets/templates-exports/DOCUMENTO NOMINA MATRICULA.xlsx
+++ b/public/assets/templates-exports/DOCUMENTO NOMINA MATRICULA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apps\Xampp\htdocs\SistemaMatricula-20165-PPP\public\assets\templates-exports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\SistemaMatricula-20165-PPP\public\assets\templates-exports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB6E19D-EC97-4765-816C-404C81B0CA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB76C24-300E-4908-85D9-ACB28F4F694C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0764D746-4199-4641-91DC-8BE5F76B7C63}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{0764D746-4199-4641-91DC-8BE5F76B7C63}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">N° de Orden </t>
   </si>
@@ -78,15 +78,6 @@
     <t>Sutiacion de Matricula</t>
   </si>
   <si>
-    <t>Ingresante</t>
-  </si>
-  <si>
-    <t>Promovido</t>
-  </si>
-  <si>
-    <t>_x000B_(I) Ingresante, (P) Promovido, (PG) Permanece en el grado, (RE) Reentrante. Solo en el caso de EBA: (REI) Reingresante</t>
-  </si>
-  <si>
     <t>Padre Vive SI/NO</t>
   </si>
   <si>
@@ -172,13 +163,34 @@
   </si>
   <si>
     <t>Centro Poblado</t>
+  </si>
+  <si>
+    <t>NOMINA DE MATRICULA  - 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El reporte de matricula se emitira haciendo uso de la Nómina de Matricula del sistema de Matricula </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D </t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen </t>
+  </si>
+  <si>
+    <t>Estudiantes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +221,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -224,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -284,11 +304,119 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right style="dashDot">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashDot">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,46 +439,169 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,6 +619,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>348318</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106802</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>165590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D26D05AB-6F5D-FF1C-F386-8B10E3131D25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="720851" y="139985"/>
+          <a:ext cx="614382" cy="719872"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -690,527 +996,798 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG16"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="166" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.75" style="1" customWidth="1"/>
-    <col min="10" max="11" width="4.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="23" width="3.625" style="1" customWidth="1"/>
-    <col min="24" max="31" width="2.125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.25" style="1" customWidth="1"/>
-    <col min="33" max="33" width="15.125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="11.5" style="1"/>
+    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
+    <col min="2" max="15" width="1.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.33203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="5.77734375" style="1" customWidth="1"/>
+    <col min="22" max="23" width="4.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="1" customWidth="1"/>
+    <col min="25" max="35" width="3.6640625" style="1" customWidth="1"/>
+    <col min="36" max="43" width="1.88671875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.21875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="15.109375" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27.6" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+    <row r="1" spans="1:45" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
     </row>
-    <row r="2" spans="1:33" ht="18.75" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
+    <row r="2" spans="1:45" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+      <c r="AQ2" s="25"/>
+      <c r="AR2" s="25"/>
+      <c r="AS2" s="25"/>
     </row>
-    <row r="3" spans="1:33" ht="15" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
+    <row r="3" spans="1:45" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="18"/>
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+    </row>
+    <row r="5" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="W5" s="18"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="18"/>
+      <c r="AL5" s="18"/>
+      <c r="AM5" s="17"/>
+      <c r="AN5" s="17"/>
+      <c r="AO5" s="17"/>
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS5" s="5"/>
+    </row>
+    <row r="6" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="9" t="s">
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AI6" s="18"/>
+      <c r="AJ6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK6" s="18"/>
+      <c r="AL6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="21"/>
+    </row>
+    <row r="7" spans="1:45" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK7" s="18"/>
+      <c r="AL7" s="18"/>
+      <c r="AM7" s="18"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+    </row>
+    <row r="8" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="5"/>
+      <c r="T8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="18"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="17"/>
+    </row>
+    <row r="9" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="11"/>
+      <c r="Z9" s="11"/>
+      <c r="AA9" s="11"/>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11"/>
+      <c r="AG9" s="11"/>
+      <c r="AH9" s="11"/>
+      <c r="AI9" s="11"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+    </row>
+    <row r="10" spans="1:45" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="9"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG3" s="5"/>
+      <c r="AK10" s="18"/>
+      <c r="AL10" s="18"/>
+      <c r="AM10" s="18"/>
+      <c r="AN10" s="18"/>
+      <c r="AO10" s="18"/>
+      <c r="AP10" s="18"/>
+      <c r="AQ10" s="18"/>
+      <c r="AR10" s="18"/>
+      <c r="AS10" s="18"/>
     </row>
-    <row r="4" spans="1:33" ht="15" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4" t="s">
+    <row r="11" spans="1:45" s="2" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="11"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="11"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11"/>
+      <c r="AF11" s="11"/>
+      <c r="AG11" s="11"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="11"/>
+      <c r="AJ11" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK11" s="22"/>
+      <c r="AL11" s="22"/>
+      <c r="AM11" s="22"/>
+      <c r="AN11" s="22"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="22"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS11" s="22"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60">
+        <v>0</v>
+      </c>
+      <c r="I12" s="60">
+        <v>0</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="60">
+        <v>0</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
+      <c r="M12" s="62">
+        <v>0</v>
+      </c>
+      <c r="N12" s="60">
+        <v>0</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="5">
+        <v>12</v>
+      </c>
+      <c r="W12" s="5">
+        <v>12</v>
+      </c>
+      <c r="X12" s="5">
+        <v>2000</v>
+      </c>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>8</v>
+      </c>
+      <c r="AN12" s="5">
         <v>9</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="12"/>
+      <c r="AO12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
     </row>
-    <row r="5" spans="1:33" ht="24">
-      <c r="A5" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
     </row>
-    <row r="6" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
-    <row r="7" spans="1:33" ht="16.5" customHeight="1">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
-      <c r="AG7" s="10"/>
+    <row r="17" spans="2:29" x14ac:dyDescent="0.3">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A8" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" ht="28.15" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="8"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="5">
-        <v>12</v>
-      </c>
-      <c r="K10" s="5">
-        <v>12</v>
-      </c>
-      <c r="L10" s="5">
-        <v>2000</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA10" s="5">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="5">
-        <v>9</v>
-      </c>
-      <c r="AC10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="Q14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="Q15" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" ht="409.5">
-      <c r="Q16" s="3" t="s">
-        <v>16</v>
-      </c>
+    <row r="18" spans="2:29" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="AC18" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="O5:O9"/>
-    <mergeCell ref="N5:N9"/>
-    <mergeCell ref="M5:M9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D8:I9"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="X2:AG2"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="W5:W9"/>
-    <mergeCell ref="V5:V9"/>
-    <mergeCell ref="U5:U9"/>
-    <mergeCell ref="M2:W2"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="T5:T9"/>
-    <mergeCell ref="S5:S9"/>
-    <mergeCell ref="R5:R9"/>
-    <mergeCell ref="Q5:Q9"/>
-    <mergeCell ref="P5:P9"/>
-    <mergeCell ref="X9:AE9"/>
-    <mergeCell ref="AF9:AG9"/>
-    <mergeCell ref="X8:AG8"/>
-    <mergeCell ref="X4:AE4"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="X5:AG5"/>
-    <mergeCell ref="X6:AG7"/>
+  <mergeCells count="53">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="AJ11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AJ10:AS10"/>
+    <mergeCell ref="AJ6:AQ6"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AJ7:AS7"/>
+    <mergeCell ref="AJ8:AS9"/>
+    <mergeCell ref="AJ4:AS4"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AI7:AI11"/>
+    <mergeCell ref="AH7:AH11"/>
+    <mergeCell ref="AG7:AG11"/>
+    <mergeCell ref="Y4:AI4"/>
+    <mergeCell ref="Y6:AI6"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AD5:AE5"/>
+    <mergeCell ref="AF5:AI5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AF7:AF11"/>
+    <mergeCell ref="AE7:AE11"/>
+    <mergeCell ref="AD7:AD11"/>
+    <mergeCell ref="AC7:AC11"/>
+    <mergeCell ref="AB7:AB11"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="P4:X4"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="T6:X6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="A7:E9"/>
+    <mergeCell ref="F7:O9"/>
+    <mergeCell ref="A4:O5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="P12:U12"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="P10:U11"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="A1:AS1"/>
+    <mergeCell ref="P2:AS2"/>
+    <mergeCell ref="B10:O11"/>
+    <mergeCell ref="AA7:AA11"/>
+    <mergeCell ref="Z7:Z11"/>
+    <mergeCell ref="Y7:Y11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="R9:X9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>